--- a/check_in_out_records.xlsx
+++ b/check_in_out_records.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,7 +1020,187 @@
         <v>45406</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.6897781113541667</v>
+        <v>0.6897781134259259</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHECKIN</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45407</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0.3917960069444445</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHECKIN</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0.4735467013888889</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHECKOUT</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0.6293182986111111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RAVAO</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0.6294142708333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHECKIN</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0.6301450694444445</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CHECKOUT</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>0.6304471296296296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RAVAO</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>0.6304751967592592</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RAVAO</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0.6304824074074075</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CHECKIN</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.6915999537037036</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nguyen Gia Khang</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHECKOUT</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45414</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.6916314058796297</v>
       </c>
     </row>
   </sheetData>
